--- a/biology/Médecine/Adrien_Soret/Adrien_Soret.xlsx
+++ b/biology/Médecine/Adrien_Soret/Adrien_Soret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Célestin Adrien Soret, né le 7 juillet 1854 à Ferrières-en-Gâtinais et mort le 22 juin 1931 à Nice, est un professeur et photographe français, pionnier de la radiologie au Havre.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Professeur de physique et d'histoire naturelle au lycée du Havre, photographe amateur, il s'intéresse aux rayons X dès 1896 et devient un pionnier de la radiologie.
 Atteint de radiodermite, il devra subir plusieurs amputations.
@@ -543,11 +557,13 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier d'Académie (1890)
- Officier de l'Instruction publique (1899)[1]
- Chevalier de la Légion d'honneur (11 mars 1924)[2]
+ Officier de l'Instruction publique (1899)
+ Chevalier de la Légion d'honneur (11 mars 1924)
 Ordre de la Couronne (Belgique) (1928)</t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Optique photographique : notions nécessaires aux photographes amateurs, étude de l'objectif, applications, Paris, Gauthier-Villars et fils, 1891, 132 p..
 Cours théorique et pratique de photographie, Paris, Société d’éditions scientifiques, 1894, 278 p..
